--- a/Data/TimecardPunch_Amy.xlsx
+++ b/Data/TimecardPunch_Amy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vezhil\Documents\WFM\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WFM Code-github-main\WFM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4723892-AF42-498D-A40A-F5D72DE41DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -533,20 +534,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -566,7 +567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10649012</v>
       </c>
@@ -586,7 +587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10649012</v>
       </c>
@@ -606,7 +607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10649012</v>
       </c>
@@ -626,7 +627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10649012</v>
       </c>
@@ -646,7 +647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>10649012</v>
       </c>
@@ -666,7 +667,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>10649012</v>
       </c>
@@ -686,7 +687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10649012</v>
       </c>
@@ -706,7 +707,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>10649012</v>
       </c>
@@ -726,7 +727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10649012</v>
       </c>
@@ -746,7 +747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10649012</v>
       </c>
@@ -766,7 +767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10649012</v>
       </c>
@@ -786,7 +787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10649012</v>
       </c>
@@ -806,7 +807,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>10649012</v>
       </c>
@@ -826,7 +827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>10649012</v>
       </c>
@@ -846,7 +847,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>10649012</v>
       </c>
@@ -866,7 +867,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>10649012</v>
       </c>
@@ -886,7 +887,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>10649012</v>
       </c>
@@ -906,7 +907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>10649012</v>
       </c>
@@ -926,7 +927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>10649012</v>
       </c>
@@ -946,7 +947,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>10649012</v>
       </c>
@@ -966,7 +967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>10649012</v>
       </c>
@@ -986,7 +987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>10649012</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>10649012</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>10649023</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>10649023</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>10649023</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>10649023</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>10649023</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>10649023</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>10649023</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>10649023</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>10649023</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>10649023</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>10649023</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>10649023</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>10649023</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>10649023</v>
       </c>
@@ -1222,7 +1223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>10649023</v>
       </c>
@@ -1236,7 +1237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>10649023</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>10649023</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>10649023</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>10649023</v>
       </c>
@@ -1292,7 +1293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>10649023</v>
       </c>
@@ -1306,7 +1307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>10649023</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>10649023</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>10649023</v>
       </c>
